--- a/Dokumente/Checklist Intermediate.xlsx
+++ b/Dokumente/Checklist Intermediate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhtw-my.sharepoint.com/personal/if23b127_technikum-wien_at/Documents/Fächer/Software Engeneering 2/Tour Planner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhtw-my.sharepoint.com/personal/if23b127_technikum-wien_at/Documents/Fächer/Software Engeneering 2/TourPlanner/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E20F35-05B4-41EA-9146-ED00E40DEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B7E20F35-05B4-41EA-9146-ED00E40DEA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CF4A94C-9E3F-4367-BACE-C25DA94E446E}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -260,6 +260,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
